--- a/消防/01_计划/消防系统总体测试0601计划.xlsx
+++ b/消防/01_计划/消防系统总体测试0601计划.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\githup\消防\01_计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="19095" windowHeight="9660"/>
+    <workbookView xWindow="4185" yWindow="0" windowWidth="19095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="80">
   <si>
     <t>测试计划</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.5.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>张元剑、何翠翠、李昌杰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -94,10 +90,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.5.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>确认测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -130,22 +122,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.5.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>李昌杰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -154,46 +130,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.5.16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>好姐、何翠翠</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.5.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>上线前确认测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.5.28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>张元剑、何翠翠</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -306,30 +250,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.5.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>张元剑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -346,38 +266,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.5.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>张元剑、对应业务开发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.5.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>进度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -387,34 +279,6 @@
   </si>
   <si>
     <t>新三屏测试计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.5.23</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -635,65 +499,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -987,8 +851,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1005,17 +869,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="B2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -1038,258 +902,258 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
+      <c r="F4" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.12</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="18">
+      <c r="I4" s="7">
         <v>1</v>
       </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="7"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
+      <c r="F5" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.15</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="7">
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="7"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
+      <c r="F6" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="7">
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="7"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
+      <c r="F7" s="1">
+        <v>5.16</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="18">
+        <v>24</v>
+      </c>
+      <c r="I7" s="7">
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5.19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="18">
+        <v>70</v>
+      </c>
+      <c r="I8" s="7">
         <v>0.8</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="7"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
+      <c r="F9" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5.24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5.28</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="7"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5.29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="7"/>
-      <c r="C13" s="17" t="s">
-        <v>20</v>
+      <c r="B13" s="14"/>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>41</v>
+      <c r="F13" s="1">
+        <v>5.29</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5.29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="B16" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
@@ -1313,151 +1177,151 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>70</v>
+      <c r="F18" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5.8</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="18">
+      <c r="I18" s="7">
         <v>1</v>
       </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="9"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>91</v>
+      <c r="F19" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5.0999999999999996</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="7">
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="9"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>91</v>
+      <c r="F20" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.0999999999999996</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="7">
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="9"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>91</v>
+      <c r="F21" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5.0999999999999996</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="18">
+        <v>24</v>
+      </c>
+      <c r="I21" s="7">
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>25</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5.17</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="18">
+        <v>13</v>
+      </c>
+      <c r="I22" s="7">
         <v>0.8</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="14"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="B25" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
@@ -1480,251 +1344,251 @@
         <v>5</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>93</v>
+      <c r="F27" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5.18</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="18">
+      <c r="I27" s="7">
         <v>1</v>
       </c>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="7"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>94</v>
+      <c r="F28" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5.2</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="7">
         <v>0.5</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="7"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>95</v>
+      <c r="F29" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5.21</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="18"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="7"/>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>96</v>
+      <c r="F30" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5.22</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="I30" s="7"/>
       <c r="J30" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="7"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5.24</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="3" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="7"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5.25</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="7"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5.28</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B34" s="7"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5.29</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="7"/>
-      <c r="C35" s="17" t="s">
-        <v>20</v>
+      <c r="B35" s="14"/>
+      <c r="C35" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>41</v>
+      <c r="F35" s="1">
+        <v>5.29</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5.29</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="14"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="14"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="B38" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
@@ -1748,126 +1612,126 @@
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>99</v>
+      <c r="B40" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>38</v>
+      <c r="F40" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="G40" s="1">
+        <v>5.26</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I40" s="18">
+        <v>75</v>
+      </c>
+      <c r="I40" s="7">
         <v>1</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="9"/>
-      <c r="C41" s="13"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>38</v>
+      <c r="F41" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5.26</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I41" s="18">
+        <v>76</v>
+      </c>
+      <c r="I41" s="7">
         <v>1</v>
       </c>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="9"/>
-      <c r="C42" s="11" t="s">
-        <v>102</v>
+      <c r="B42" s="19"/>
+      <c r="C42" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>41</v>
+      <c r="F42" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5.29</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" s="18">
+        <v>75</v>
+      </c>
+      <c r="I42" s="7">
         <v>1</v>
       </c>
       <c r="J42" s="26"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="10"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="1" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5.29</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I43" s="18">
+        <v>75</v>
+      </c>
+      <c r="I43" s="7">
         <v>0.8</v>
       </c>
       <c r="J43" s="27"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="14"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="5"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+      <c r="B46" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
@@ -1891,188 +1755,188 @@
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="G48" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="G50" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="G51" s="4">
+        <v>5.19</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" s="7">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B52" s="12"/>
+      <c r="C52" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I48" s="18">
-        <v>1</v>
-      </c>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I49" s="18">
-        <v>1</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="E52" s="4"/>
+      <c r="F52" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="G52" s="4">
+        <v>5.21</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="1" t="s">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4">
+        <v>5.22</v>
+      </c>
+      <c r="G53" s="4">
+        <v>5.24</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I50" s="18">
-        <v>1</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I51" s="18">
-        <v>1</v>
-      </c>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B52" s="15"/>
-      <c r="C52" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I52" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B54" s="15"/>
-      <c r="C54" s="16"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>86</v>
+      <c r="F54" s="4">
+        <v>5.25</v>
+      </c>
+      <c r="G54" s="4">
+        <v>5.26</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E55" s="4"/>
-      <c r="F55" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>87</v>
+      <c r="F55" s="4">
+        <v>5.25</v>
+      </c>
+      <c r="G55" s="4">
+        <v>5.26</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="15"/>
-      <c r="C56" s="17" t="s">
-        <v>69</v>
+      <c r="B56" s="12"/>
+      <c r="C56" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -2082,12 +1946,12 @@
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="15"/>
-      <c r="C57" s="16" t="s">
-        <v>65</v>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2097,10 +1961,10 @@
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="3" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -2110,10 +1974,10 @@
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="15"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -2123,10 +1987,10 @@
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="15"/>
-      <c r="C60" s="16"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="3" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -2137,18 +2001,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="B48:B60"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B40:B43"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="C4:C6"/>
@@ -2159,6 +2011,18 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="J40:J43"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="B48:B60"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
